--- a/excel_template/mn.xlsx
+++ b/excel_template/mn.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Самарканд" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Самарканд!$A$1:$K$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Самарканд!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Самарканд!$A$1:$Q$193</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Самарканд!$5:$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Самарканд!$A$1:$K$193</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2562,7 +2562,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2665,10 +2665,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2822,7 +2818,7 @@
   </sheetPr>
   <dimension ref="A1:L246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A132" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection pane="topLeft" activeCell="K100" activeCellId="0" sqref="K100"/>
     </sheetView>
   </sheetViews>
@@ -3310,17 +3306,17 @@
     <row r="30" s="12" customFormat="true" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="24"/>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>11</v>
       </c>
@@ -3335,7 +3331,7 @@
       <c r="J31" s="21"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>12</v>
       </c>
@@ -3401,7 +3397,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -3441,13 +3437,13 @@
         <v>16</v>
       </c>
       <c r="B39" s="23"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="23"/>
       <c r="K39" s="25"/>
     </row>
@@ -3462,7 +3458,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="26"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="23"/>
       <c r="K40" s="25"/>
     </row>
@@ -3745,7 +3741,7 @@
       <c r="A53" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="5" t="n">
@@ -3755,26 +3751,26 @@
       <c r="E53" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="32" t="n">
+      <c r="G53" s="31" t="n">
         <v>1.3</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="30" t="s">
         <v>57</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J53" s="30" t="s">
+      <c r="J53" s="29" t="s">
         <v>59</v>
       </c>
       <c r="K53" s="25"/>
     </row>
     <row r="54" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="5" t="n">
         <v>298.5</v>
       </c>
@@ -3782,39 +3778,39 @@
       <c r="E54" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="32" t="n">
+      <c r="G54" s="31" t="n">
         <v>1.2</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I54" s="22"/>
-      <c r="J54" s="30"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="25"/>
     </row>
     <row r="55" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26" t="n">
+      <c r="B55" s="29"/>
+      <c r="C55" s="22" t="n">
         <v>44.1</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I55" s="22"/>
-      <c r="J55" s="30"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="25"/>
     </row>
-    <row r="56" s="27" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="26" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>26</v>
       </c>
@@ -3841,14 +3837,14 @@
       </c>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" s="34" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="33" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>27</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="33" t="n">
+      <c r="C57" s="32" t="n">
         <v>168.5</v>
       </c>
       <c r="D57" s="5"/>
@@ -3857,7 +3853,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="22" t="s">
         <v>68</v>
       </c>
       <c r="I57" s="5" t="s">
@@ -4018,21 +4014,21 @@
       <c r="B64" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="26" t="n">
+      <c r="C64" s="22" t="n">
         <v>557</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="26" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26" t="s">
+      <c r="G64" s="22"/>
+      <c r="H64" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="22" t="s">
         <v>89</v>
       </c>
       <c r="J64" s="23" t="s">
@@ -4463,7 +4459,7 @@
       <c r="H79" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I79" s="26" t="s">
+      <c r="I79" s="22" t="s">
         <v>145</v>
       </c>
       <c r="J79" s="23" t="s">
@@ -4547,7 +4543,7 @@
       <c r="H82" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I82" s="26" t="s">
+      <c r="I82" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J82" s="23" t="s">
@@ -4578,7 +4574,7 @@
       <c r="H83" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I83" s="26" t="s">
+      <c r="I83" s="22" t="s">
         <v>160</v>
       </c>
       <c r="J83" s="23" t="s">
@@ -4665,7 +4661,7 @@
       </c>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" s="27" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="26" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>51</v>
       </c>
@@ -4694,7 +4690,7 @@
       </c>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" s="27" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="26" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>52</v>
       </c>
@@ -4754,7 +4750,7 @@
       </c>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>54</v>
       </c>
@@ -4783,14 +4779,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>55</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="33" t="n">
+      <c r="C91" s="32" t="n">
         <v>2997.9</v>
       </c>
       <c r="D91" s="5"/>
@@ -4799,7 +4795,7 @@
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="26" t="s">
+      <c r="H91" s="22" t="s">
         <v>189</v>
       </c>
       <c r="I91" s="5" t="s">
@@ -4812,14 +4808,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
         <v>56</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C92" s="35" t="n">
+      <c r="C92" s="34" t="n">
         <v>282.6</v>
       </c>
       <c r="D92" s="5"/>
@@ -4843,7 +4839,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" s="36" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="20" t="s">
         <v>195</v>
       </c>
@@ -5251,7 +5247,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
         <v>60</v>
       </c>
@@ -5280,7 +5276,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
         <v>61</v>
       </c>
@@ -5309,14 +5305,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="112" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
         <v>62</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C112" s="35" t="n">
+      <c r="C112" s="34" t="n">
         <v>5834.6</v>
       </c>
       <c r="D112" s="5"/>
@@ -5338,14 +5334,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
         <v>63</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="35" t="n">
+      <c r="C113" s="34" t="n">
         <v>4866.3</v>
       </c>
       <c r="D113" s="5"/>
@@ -5367,7 +5363,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="114" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
         <v>64</v>
       </c>
@@ -5458,7 +5454,7 @@
       <c r="K117" s="5"/>
     </row>
     <row r="118" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="37" t="n">
+      <c r="A118" s="36" t="n">
         <v>66</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -5489,7 +5485,7 @@
       </c>
     </row>
     <row r="119" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="37"/>
+      <c r="A119" s="36"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -5508,7 +5504,7 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="37"/>
+      <c r="A120" s="36"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -5527,7 +5523,7 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="37"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5" t="n">
         <v>2090</v>
@@ -5548,7 +5544,7 @@
       <c r="K121" s="6"/>
     </row>
     <row r="122" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="37"/>
+      <c r="A122" s="36"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5" t="n">
         <v>240</v>
@@ -5569,7 +5565,7 @@
       <c r="K122" s="6"/>
     </row>
     <row r="123" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="37"/>
+      <c r="A123" s="36"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5" t="n">
         <v>14509.4</v>
@@ -5753,7 +5749,7 @@
       <c r="J130" s="9"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
         <v>69</v>
       </c>
@@ -5782,7 +5778,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="132" s="34" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="33" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
         <v>70</v>
       </c>
@@ -5813,14 +5809,14 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" s="34" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="33" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
         <v>71</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C133" s="35" t="n">
+      <c r="C133" s="34" t="n">
         <v>304.8</v>
       </c>
       <c r="D133" s="5"/>
@@ -5858,7 +5854,7 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" s="12" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="26" t="n">
+      <c r="A135" s="22" t="n">
         <v>72</v>
       </c>
       <c r="B135" s="23" t="s">
@@ -5871,14 +5867,14 @@
       <c r="E135" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F135" s="31" t="s">
+      <c r="F135" s="30" t="s">
         <v>297</v>
       </c>
       <c r="G135" s="5"/>
-      <c r="H135" s="31" t="s">
+      <c r="H135" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="I135" s="26" t="s">
+      <c r="I135" s="22" t="s">
         <v>299</v>
       </c>
       <c r="J135" s="23" t="s">
@@ -6110,7 +6106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
         <v>77</v>
       </c>
@@ -6139,7 +6135,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
         <v>78</v>
       </c>
@@ -6298,7 +6294,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="150" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
         <v>83</v>
       </c>
@@ -6329,7 +6325,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
         <v>84</v>
       </c>
@@ -6373,7 +6369,7 @@
       <c r="J152" s="20"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
         <v>85</v>
       </c>
@@ -6403,7 +6399,7 @@
       </c>
     </row>
     <row r="154" s="12" customFormat="true" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="26" t="n">
+      <c r="A154" s="22" t="n">
         <v>86</v>
       </c>
       <c r="B154" s="23" t="s">
@@ -6501,7 +6497,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="157" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
         <v>89</v>
       </c>
@@ -6531,7 +6527,7 @@
       </c>
     </row>
     <row r="158" s="12" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="26" t="n">
+      <c r="A158" s="22" t="n">
         <v>90</v>
       </c>
       <c r="B158" s="23" t="s">
@@ -6551,7 +6547,7 @@
       <c r="H158" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="I158" s="26" t="s">
+      <c r="I158" s="22" t="s">
         <v>397</v>
       </c>
       <c r="J158" s="23" t="s">
@@ -6575,7 +6571,7 @@
       <c r="E159" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F159" s="31" t="s">
+      <c r="F159" s="30" t="s">
         <v>400</v>
       </c>
       <c r="G159" s="5" t="n">
@@ -6899,7 +6895,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
         <v>99</v>
       </c>
@@ -7195,7 +7191,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
         <v>107</v>
       </c>
@@ -7258,10 +7254,10 @@
       </c>
     </row>
     <row r="183" s="12" customFormat="true" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="26" t="n">
+      <c r="A183" s="22" t="n">
         <v>109</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="29" t="s">
         <v>498</v>
       </c>
       <c r="C183" s="5" t="n">
@@ -7278,7 +7274,7 @@
       <c r="H183" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="I183" s="26" t="s">
+      <c r="I183" s="22" t="s">
         <v>501</v>
       </c>
       <c r="J183" s="23" t="s">
@@ -7288,7 +7284,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="184" s="27" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
         <v>110</v>
       </c>
@@ -7447,7 +7443,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="189" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
         <v>115</v>
       </c>
@@ -7478,21 +7474,21 @@
         <v>355</v>
       </c>
     </row>
-    <row r="190" s="34" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="33" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
         <v>116</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C190" s="35" t="n">
+      <c r="C190" s="34" t="n">
         <v>91.3</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F190" s="38"/>
+      <c r="F190" s="37"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
         <v>193</v>
@@ -7507,14 +7503,14 @@
         <v>355</v>
       </c>
     </row>
-    <row r="191" s="34" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" s="33" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
         <v>117</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C191" s="35" t="s">
+      <c r="C191" s="34" t="s">
         <v>530</v>
       </c>
       <c r="D191" s="5"/>
@@ -7581,621 +7577,621 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="39"/>
-      <c r="B194" s="40"/>
-      <c r="C194" s="41"/>
-      <c r="D194" s="41"/>
-      <c r="E194" s="39"/>
-      <c r="F194" s="39"/>
-      <c r="G194" s="42"/>
-      <c r="H194" s="39"/>
-      <c r="I194" s="39"/>
-      <c r="J194" s="40"/>
+      <c r="A194" s="38"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="38"/>
+      <c r="G194" s="41"/>
+      <c r="H194" s="38"/>
+      <c r="I194" s="38"/>
+      <c r="J194" s="39"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="39"/>
-      <c r="B195" s="40"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="41"/>
-      <c r="F195" s="41"/>
-      <c r="G195" s="42"/>
-      <c r="H195" s="39"/>
-      <c r="I195" s="39"/>
-      <c r="J195" s="40"/>
+      <c r="A195" s="38"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="40"/>
+      <c r="F195" s="40"/>
+      <c r="G195" s="41"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="38"/>
+      <c r="J195" s="39"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="39"/>
-      <c r="B196" s="40"/>
-      <c r="C196" s="41"/>
-      <c r="D196" s="41"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="42"/>
-      <c r="H196" s="39"/>
-      <c r="I196" s="39"/>
-      <c r="J196" s="40"/>
+      <c r="A196" s="38"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="38"/>
+      <c r="F196" s="38"/>
+      <c r="G196" s="41"/>
+      <c r="H196" s="38"/>
+      <c r="I196" s="38"/>
+      <c r="J196" s="39"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="39"/>
-      <c r="B197" s="40"/>
-      <c r="C197" s="41"/>
-      <c r="D197" s="41"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="39"/>
-      <c r="G197" s="42"/>
-      <c r="H197" s="39"/>
-      <c r="I197" s="39"/>
-      <c r="J197" s="40"/>
+      <c r="A197" s="38"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="38"/>
+      <c r="F197" s="38"/>
+      <c r="G197" s="41"/>
+      <c r="H197" s="38"/>
+      <c r="I197" s="38"/>
+      <c r="J197" s="39"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="39"/>
-      <c r="B198" s="40"/>
-      <c r="C198" s="41"/>
-      <c r="D198" s="41"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
-      <c r="G198" s="42"/>
-      <c r="H198" s="39"/>
-      <c r="I198" s="39"/>
-      <c r="J198" s="40"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="38"/>
+      <c r="F198" s="38"/>
+      <c r="G198" s="41"/>
+      <c r="H198" s="38"/>
+      <c r="I198" s="38"/>
+      <c r="J198" s="39"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="39"/>
-      <c r="B199" s="40"/>
-      <c r="C199" s="41"/>
-      <c r="D199" s="41"/>
-      <c r="E199" s="41"/>
-      <c r="F199" s="41"/>
-      <c r="G199" s="42"/>
-      <c r="H199" s="39"/>
-      <c r="I199" s="39"/>
-      <c r="J199" s="40"/>
+      <c r="A199" s="38"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="40"/>
+      <c r="F199" s="40"/>
+      <c r="G199" s="41"/>
+      <c r="H199" s="38"/>
+      <c r="I199" s="38"/>
+      <c r="J199" s="39"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="39"/>
-      <c r="B200" s="40"/>
-      <c r="C200" s="41"/>
-      <c r="D200" s="41"/>
-      <c r="E200" s="39"/>
-      <c r="F200" s="39"/>
-      <c r="G200" s="42"/>
-      <c r="H200" s="39"/>
-      <c r="I200" s="39"/>
-      <c r="J200" s="40"/>
+      <c r="A200" s="38"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="38"/>
+      <c r="F200" s="38"/>
+      <c r="G200" s="41"/>
+      <c r="H200" s="38"/>
+      <c r="I200" s="38"/>
+      <c r="J200" s="39"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="39"/>
-      <c r="B201" s="40"/>
-      <c r="C201" s="41"/>
-      <c r="D201" s="41"/>
-      <c r="E201" s="39"/>
-      <c r="F201" s="39"/>
-      <c r="G201" s="42"/>
-      <c r="H201" s="39"/>
-      <c r="I201" s="39"/>
-      <c r="J201" s="40"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="38"/>
+      <c r="F201" s="38"/>
+      <c r="G201" s="41"/>
+      <c r="H201" s="38"/>
+      <c r="I201" s="38"/>
+      <c r="J201" s="39"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="39"/>
-      <c r="B202" s="40"/>
-      <c r="C202" s="41"/>
-      <c r="D202" s="41"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="42"/>
-      <c r="H202" s="39"/>
-      <c r="I202" s="39"/>
-      <c r="J202" s="40"/>
+      <c r="A202" s="38"/>
+      <c r="B202" s="39"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="38"/>
+      <c r="F202" s="38"/>
+      <c r="G202" s="41"/>
+      <c r="H202" s="38"/>
+      <c r="I202" s="38"/>
+      <c r="J202" s="39"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="39"/>
-      <c r="B203" s="40"/>
-      <c r="C203" s="41"/>
-      <c r="D203" s="41"/>
-      <c r="E203" s="39"/>
-      <c r="F203" s="39"/>
-      <c r="G203" s="42"/>
-      <c r="H203" s="39"/>
-      <c r="I203" s="39"/>
-      <c r="J203" s="40"/>
+      <c r="A203" s="38"/>
+      <c r="B203" s="39"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="38"/>
+      <c r="F203" s="38"/>
+      <c r="G203" s="41"/>
+      <c r="H203" s="38"/>
+      <c r="I203" s="38"/>
+      <c r="J203" s="39"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="39"/>
-      <c r="B204" s="40"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="41"/>
-      <c r="E204" s="39"/>
-      <c r="F204" s="39"/>
-      <c r="G204" s="42"/>
-      <c r="H204" s="39"/>
-      <c r="I204" s="39"/>
-      <c r="J204" s="40"/>
+      <c r="A204" s="38"/>
+      <c r="B204" s="39"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="38"/>
+      <c r="F204" s="38"/>
+      <c r="G204" s="41"/>
+      <c r="H204" s="38"/>
+      <c r="I204" s="38"/>
+      <c r="J204" s="39"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="39"/>
-      <c r="B205" s="40"/>
-      <c r="C205" s="41"/>
-      <c r="D205" s="41"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="42"/>
-      <c r="H205" s="39"/>
-      <c r="I205" s="39"/>
-      <c r="J205" s="40"/>
+      <c r="A205" s="38"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="38"/>
+      <c r="F205" s="38"/>
+      <c r="G205" s="41"/>
+      <c r="H205" s="38"/>
+      <c r="I205" s="38"/>
+      <c r="J205" s="39"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="39"/>
-      <c r="B206" s="40"/>
-      <c r="C206" s="41"/>
-      <c r="D206" s="41"/>
-      <c r="E206" s="39"/>
-      <c r="F206" s="39"/>
-      <c r="G206" s="42"/>
-      <c r="H206" s="39"/>
-      <c r="I206" s="39"/>
-      <c r="J206" s="40"/>
+      <c r="A206" s="38"/>
+      <c r="B206" s="39"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="40"/>
+      <c r="E206" s="38"/>
+      <c r="F206" s="38"/>
+      <c r="G206" s="41"/>
+      <c r="H206" s="38"/>
+      <c r="I206" s="38"/>
+      <c r="J206" s="39"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="39"/>
-      <c r="B207" s="40"/>
-      <c r="C207" s="41"/>
-      <c r="D207" s="41"/>
-      <c r="E207" s="39"/>
-      <c r="F207" s="39"/>
-      <c r="G207" s="42"/>
-      <c r="H207" s="39"/>
-      <c r="I207" s="39"/>
-      <c r="J207" s="40"/>
+      <c r="A207" s="38"/>
+      <c r="B207" s="39"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="40"/>
+      <c r="E207" s="38"/>
+      <c r="F207" s="38"/>
+      <c r="G207" s="41"/>
+      <c r="H207" s="38"/>
+      <c r="I207" s="38"/>
+      <c r="J207" s="39"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="39"/>
-      <c r="B208" s="40"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="41"/>
-      <c r="E208" s="39"/>
-      <c r="F208" s="39"/>
-      <c r="G208" s="42"/>
-      <c r="H208" s="39"/>
-      <c r="I208" s="39"/>
-      <c r="J208" s="40"/>
+      <c r="A208" s="38"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="38"/>
+      <c r="F208" s="38"/>
+      <c r="G208" s="41"/>
+      <c r="H208" s="38"/>
+      <c r="I208" s="38"/>
+      <c r="J208" s="39"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="39"/>
-      <c r="B209" s="40"/>
-      <c r="C209" s="41"/>
-      <c r="D209" s="41"/>
-      <c r="E209" s="39"/>
-      <c r="F209" s="39"/>
-      <c r="G209" s="42"/>
-      <c r="H209" s="39"/>
-      <c r="I209" s="39"/>
-      <c r="J209" s="40"/>
+      <c r="A209" s="38"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="40"/>
+      <c r="E209" s="38"/>
+      <c r="F209" s="38"/>
+      <c r="G209" s="41"/>
+      <c r="H209" s="38"/>
+      <c r="I209" s="38"/>
+      <c r="J209" s="39"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="39"/>
-      <c r="B210" s="40"/>
-      <c r="C210" s="41"/>
-      <c r="D210" s="41"/>
-      <c r="E210" s="39"/>
-      <c r="F210" s="39"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="39"/>
-      <c r="I210" s="39"/>
-      <c r="J210" s="40"/>
+      <c r="A210" s="38"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="38"/>
+      <c r="F210" s="38"/>
+      <c r="G210" s="41"/>
+      <c r="H210" s="38"/>
+      <c r="I210" s="38"/>
+      <c r="J210" s="39"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="39"/>
-      <c r="B211" s="40"/>
-      <c r="C211" s="41"/>
-      <c r="D211" s="41"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="39"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="39"/>
-      <c r="I211" s="39"/>
-      <c r="J211" s="40"/>
+      <c r="A211" s="38"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="40"/>
+      <c r="D211" s="40"/>
+      <c r="E211" s="38"/>
+      <c r="F211" s="38"/>
+      <c r="G211" s="41"/>
+      <c r="H211" s="38"/>
+      <c r="I211" s="38"/>
+      <c r="J211" s="39"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="39"/>
-      <c r="B212" s="40"/>
-      <c r="C212" s="41"/>
-      <c r="D212" s="41"/>
-      <c r="E212" s="39"/>
-      <c r="F212" s="39"/>
-      <c r="G212" s="42"/>
-      <c r="H212" s="39"/>
-      <c r="I212" s="39"/>
-      <c r="J212" s="40"/>
+      <c r="A212" s="38"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="38"/>
+      <c r="F212" s="38"/>
+      <c r="G212" s="41"/>
+      <c r="H212" s="38"/>
+      <c r="I212" s="38"/>
+      <c r="J212" s="39"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="39"/>
-      <c r="B213" s="40"/>
-      <c r="C213" s="41"/>
-      <c r="D213" s="41"/>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
-      <c r="G213" s="42"/>
-      <c r="H213" s="39"/>
-      <c r="I213" s="39"/>
-      <c r="J213" s="40"/>
+      <c r="A213" s="38"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="40"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="38"/>
+      <c r="F213" s="38"/>
+      <c r="G213" s="41"/>
+      <c r="H213" s="38"/>
+      <c r="I213" s="38"/>
+      <c r="J213" s="39"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="39"/>
-      <c r="B214" s="40"/>
-      <c r="C214" s="41"/>
-      <c r="D214" s="41"/>
-      <c r="E214" s="39"/>
-      <c r="F214" s="39"/>
-      <c r="G214" s="42"/>
-      <c r="H214" s="39"/>
-      <c r="I214" s="39"/>
-      <c r="J214" s="40"/>
+      <c r="A214" s="38"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="40"/>
+      <c r="D214" s="40"/>
+      <c r="E214" s="38"/>
+      <c r="F214" s="38"/>
+      <c r="G214" s="41"/>
+      <c r="H214" s="38"/>
+      <c r="I214" s="38"/>
+      <c r="J214" s="39"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="39"/>
-      <c r="B215" s="40"/>
-      <c r="C215" s="41"/>
-      <c r="D215" s="41"/>
-      <c r="E215" s="39"/>
-      <c r="F215" s="39"/>
-      <c r="G215" s="42"/>
-      <c r="H215" s="39"/>
-      <c r="I215" s="39"/>
-      <c r="J215" s="40"/>
+      <c r="A215" s="38"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="38"/>
+      <c r="F215" s="38"/>
+      <c r="G215" s="41"/>
+      <c r="H215" s="38"/>
+      <c r="I215" s="38"/>
+      <c r="J215" s="39"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="39"/>
-      <c r="B216" s="40"/>
-      <c r="C216" s="41"/>
-      <c r="D216" s="41"/>
-      <c r="E216" s="39"/>
-      <c r="F216" s="39"/>
-      <c r="G216" s="42"/>
-      <c r="H216" s="39"/>
-      <c r="I216" s="39"/>
-      <c r="J216" s="40"/>
+      <c r="A216" s="38"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="40"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="38"/>
+      <c r="F216" s="38"/>
+      <c r="G216" s="41"/>
+      <c r="H216" s="38"/>
+      <c r="I216" s="38"/>
+      <c r="J216" s="39"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="39"/>
-      <c r="B217" s="40"/>
-      <c r="C217" s="41"/>
-      <c r="D217" s="41"/>
-      <c r="E217" s="39"/>
-      <c r="F217" s="39"/>
-      <c r="G217" s="42"/>
-      <c r="H217" s="39"/>
-      <c r="I217" s="39"/>
-      <c r="J217" s="40"/>
+      <c r="A217" s="38"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="38"/>
+      <c r="F217" s="38"/>
+      <c r="G217" s="41"/>
+      <c r="H217" s="38"/>
+      <c r="I217" s="38"/>
+      <c r="J217" s="39"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="39"/>
-      <c r="B218" s="40"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="41"/>
-      <c r="E218" s="39"/>
-      <c r="F218" s="39"/>
-      <c r="G218" s="42"/>
-      <c r="H218" s="39"/>
-      <c r="I218" s="39"/>
-      <c r="J218" s="40"/>
+      <c r="A218" s="38"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="38"/>
+      <c r="F218" s="38"/>
+      <c r="G218" s="41"/>
+      <c r="H218" s="38"/>
+      <c r="I218" s="38"/>
+      <c r="J218" s="39"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="39"/>
-      <c r="B219" s="40"/>
-      <c r="C219" s="41"/>
-      <c r="D219" s="41"/>
-      <c r="E219" s="39"/>
-      <c r="F219" s="39"/>
-      <c r="G219" s="42"/>
-      <c r="H219" s="39"/>
-      <c r="I219" s="39"/>
-      <c r="J219" s="40"/>
+      <c r="A219" s="38"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="40"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="38"/>
+      <c r="F219" s="38"/>
+      <c r="G219" s="41"/>
+      <c r="H219" s="38"/>
+      <c r="I219" s="38"/>
+      <c r="J219" s="39"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="39"/>
-      <c r="B220" s="40"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="41"/>
-      <c r="E220" s="39"/>
-      <c r="F220" s="39"/>
-      <c r="G220" s="42"/>
-      <c r="H220" s="39"/>
-      <c r="I220" s="39"/>
-      <c r="J220" s="40"/>
+      <c r="A220" s="38"/>
+      <c r="B220" s="39"/>
+      <c r="C220" s="40"/>
+      <c r="D220" s="40"/>
+      <c r="E220" s="38"/>
+      <c r="F220" s="38"/>
+      <c r="G220" s="41"/>
+      <c r="H220" s="38"/>
+      <c r="I220" s="38"/>
+      <c r="J220" s="39"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="43"/>
-      <c r="B221" s="43"/>
-      <c r="C221" s="43"/>
-      <c r="D221" s="43"/>
-      <c r="E221" s="43"/>
-      <c r="F221" s="43"/>
-      <c r="G221" s="43"/>
-      <c r="H221" s="43"/>
-      <c r="I221" s="43"/>
-      <c r="J221" s="43"/>
+      <c r="A221" s="42"/>
+      <c r="B221" s="42"/>
+      <c r="C221" s="42"/>
+      <c r="D221" s="42"/>
+      <c r="E221" s="42"/>
+      <c r="F221" s="42"/>
+      <c r="G221" s="42"/>
+      <c r="H221" s="42"/>
+      <c r="I221" s="42"/>
+      <c r="J221" s="42"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="39"/>
-      <c r="B222" s="40"/>
-      <c r="C222" s="41"/>
-      <c r="D222" s="41"/>
-      <c r="E222" s="39"/>
-      <c r="F222" s="39"/>
-      <c r="G222" s="42"/>
-      <c r="H222" s="39"/>
-      <c r="I222" s="39"/>
-      <c r="J222" s="40"/>
+      <c r="A222" s="38"/>
+      <c r="B222" s="39"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="38"/>
+      <c r="G222" s="41"/>
+      <c r="H222" s="38"/>
+      <c r="I222" s="38"/>
+      <c r="J222" s="39"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="39"/>
-      <c r="B223" s="40"/>
-      <c r="C223" s="41"/>
-      <c r="D223" s="41"/>
-      <c r="E223" s="44"/>
-      <c r="F223" s="44"/>
-      <c r="G223" s="42"/>
-      <c r="H223" s="39"/>
-      <c r="I223" s="39"/>
-      <c r="J223" s="40"/>
+      <c r="A223" s="38"/>
+      <c r="B223" s="39"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="40"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="43"/>
+      <c r="G223" s="41"/>
+      <c r="H223" s="38"/>
+      <c r="I223" s="38"/>
+      <c r="J223" s="39"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="39"/>
-      <c r="B224" s="40"/>
-      <c r="C224" s="41"/>
-      <c r="D224" s="41"/>
-      <c r="E224" s="39"/>
-      <c r="F224" s="39"/>
-      <c r="H224" s="39"/>
-      <c r="I224" s="39"/>
-      <c r="J224" s="40"/>
+      <c r="A224" s="38"/>
+      <c r="B224" s="39"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="40"/>
+      <c r="E224" s="38"/>
+      <c r="F224" s="38"/>
+      <c r="H224" s="38"/>
+      <c r="I224" s="38"/>
+      <c r="J224" s="39"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="43"/>
-      <c r="B225" s="43"/>
-      <c r="C225" s="43"/>
-      <c r="D225" s="43"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="43"/>
-      <c r="H225" s="43"/>
-      <c r="I225" s="43"/>
-      <c r="J225" s="43"/>
+      <c r="A225" s="42"/>
+      <c r="B225" s="42"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
+      <c r="G225" s="42"/>
+      <c r="H225" s="42"/>
+      <c r="I225" s="42"/>
+      <c r="J225" s="42"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="39"/>
-      <c r="B226" s="40"/>
-      <c r="C226" s="41"/>
-      <c r="D226" s="41"/>
-      <c r="E226" s="39"/>
-      <c r="F226" s="39"/>
-      <c r="H226" s="39"/>
-      <c r="I226" s="39"/>
-      <c r="J226" s="40"/>
+      <c r="A226" s="38"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="40"/>
+      <c r="D226" s="40"/>
+      <c r="E226" s="38"/>
+      <c r="F226" s="38"/>
+      <c r="H226" s="38"/>
+      <c r="I226" s="38"/>
+      <c r="J226" s="39"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="39"/>
-      <c r="B227" s="40"/>
-      <c r="C227" s="41"/>
-      <c r="D227" s="41"/>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="H227" s="39"/>
-      <c r="I227" s="39"/>
-      <c r="J227" s="40"/>
+      <c r="A227" s="38"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="40"/>
+      <c r="D227" s="40"/>
+      <c r="E227" s="38"/>
+      <c r="F227" s="38"/>
+      <c r="H227" s="38"/>
+      <c r="I227" s="38"/>
+      <c r="J227" s="39"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="43"/>
-      <c r="B228" s="43"/>
-      <c r="C228" s="43"/>
-      <c r="D228" s="43"/>
-      <c r="E228" s="43"/>
-      <c r="F228" s="43"/>
-      <c r="G228" s="43"/>
-      <c r="H228" s="43"/>
-      <c r="I228" s="43"/>
-      <c r="J228" s="43"/>
+      <c r="A228" s="42"/>
+      <c r="B228" s="42"/>
+      <c r="C228" s="42"/>
+      <c r="D228" s="42"/>
+      <c r="E228" s="42"/>
+      <c r="F228" s="42"/>
+      <c r="G228" s="42"/>
+      <c r="H228" s="42"/>
+      <c r="I228" s="42"/>
+      <c r="J228" s="42"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="39"/>
-      <c r="B229" s="40"/>
-      <c r="C229" s="41"/>
-      <c r="D229" s="41"/>
-      <c r="E229" s="39"/>
-      <c r="F229" s="39"/>
-      <c r="H229" s="39"/>
-      <c r="I229" s="39"/>
-      <c r="J229" s="40"/>
+      <c r="A229" s="38"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="40"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="38"/>
+      <c r="F229" s="38"/>
+      <c r="H229" s="38"/>
+      <c r="I229" s="38"/>
+      <c r="J229" s="39"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="39"/>
-      <c r="B230" s="40"/>
-      <c r="C230" s="41"/>
-      <c r="D230" s="41"/>
-      <c r="E230" s="39"/>
-      <c r="F230" s="39"/>
-      <c r="H230" s="39"/>
-      <c r="I230" s="39"/>
-      <c r="J230" s="40"/>
+      <c r="A230" s="38"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="40"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="38"/>
+      <c r="F230" s="38"/>
+      <c r="H230" s="38"/>
+      <c r="I230" s="38"/>
+      <c r="J230" s="39"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="39"/>
-      <c r="B231" s="40"/>
-      <c r="C231" s="41"/>
-      <c r="D231" s="41"/>
-      <c r="E231" s="39"/>
-      <c r="F231" s="39"/>
-      <c r="H231" s="39"/>
-      <c r="I231" s="39"/>
-      <c r="J231" s="40"/>
+      <c r="A231" s="38"/>
+      <c r="B231" s="39"/>
+      <c r="C231" s="40"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="38"/>
+      <c r="F231" s="38"/>
+      <c r="H231" s="38"/>
+      <c r="I231" s="38"/>
+      <c r="J231" s="39"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="39"/>
-      <c r="B232" s="40"/>
-      <c r="C232" s="41"/>
-      <c r="D232" s="41"/>
-      <c r="E232" s="39"/>
-      <c r="F232" s="39"/>
-      <c r="H232" s="39"/>
-      <c r="I232" s="39"/>
-      <c r="J232" s="40"/>
+      <c r="A232" s="38"/>
+      <c r="B232" s="39"/>
+      <c r="C232" s="40"/>
+      <c r="D232" s="40"/>
+      <c r="E232" s="38"/>
+      <c r="F232" s="38"/>
+      <c r="H232" s="38"/>
+      <c r="I232" s="38"/>
+      <c r="J232" s="39"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="43"/>
-      <c r="B233" s="43"/>
-      <c r="C233" s="43"/>
-      <c r="D233" s="43"/>
-      <c r="E233" s="43"/>
-      <c r="F233" s="43"/>
-      <c r="G233" s="43"/>
-      <c r="H233" s="43"/>
-      <c r="I233" s="43"/>
-      <c r="J233" s="43"/>
+      <c r="A233" s="42"/>
+      <c r="B233" s="42"/>
+      <c r="C233" s="42"/>
+      <c r="D233" s="42"/>
+      <c r="E233" s="42"/>
+      <c r="F233" s="42"/>
+      <c r="G233" s="42"/>
+      <c r="H233" s="42"/>
+      <c r="I233" s="42"/>
+      <c r="J233" s="42"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="39"/>
-      <c r="B234" s="40"/>
-      <c r="C234" s="41"/>
-      <c r="D234" s="41"/>
-      <c r="E234" s="39"/>
-      <c r="F234" s="39"/>
-      <c r="H234" s="39"/>
-      <c r="I234" s="39"/>
-      <c r="J234" s="40"/>
+      <c r="A234" s="38"/>
+      <c r="B234" s="39"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="38"/>
+      <c r="H234" s="38"/>
+      <c r="I234" s="38"/>
+      <c r="J234" s="39"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="43"/>
-      <c r="B235" s="43"/>
-      <c r="C235" s="43"/>
-      <c r="D235" s="43"/>
-      <c r="E235" s="43"/>
-      <c r="F235" s="43"/>
-      <c r="G235" s="43"/>
-      <c r="H235" s="43"/>
-      <c r="I235" s="43"/>
-      <c r="J235" s="43"/>
+      <c r="A235" s="42"/>
+      <c r="B235" s="42"/>
+      <c r="C235" s="42"/>
+      <c r="D235" s="42"/>
+      <c r="E235" s="42"/>
+      <c r="F235" s="42"/>
+      <c r="G235" s="42"/>
+      <c r="H235" s="42"/>
+      <c r="I235" s="42"/>
+      <c r="J235" s="42"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="39"/>
-      <c r="B236" s="40"/>
-      <c r="C236" s="41"/>
-      <c r="D236" s="41"/>
-      <c r="E236" s="39"/>
-      <c r="F236" s="39"/>
-      <c r="H236" s="39"/>
-      <c r="I236" s="39"/>
-      <c r="J236" s="40"/>
+      <c r="A236" s="38"/>
+      <c r="B236" s="39"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="40"/>
+      <c r="E236" s="38"/>
+      <c r="F236" s="38"/>
+      <c r="H236" s="38"/>
+      <c r="I236" s="38"/>
+      <c r="J236" s="39"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="39"/>
-      <c r="B237" s="40"/>
-      <c r="C237" s="41"/>
-      <c r="D237" s="41"/>
-      <c r="E237" s="39"/>
-      <c r="F237" s="39"/>
-      <c r="H237" s="39"/>
-      <c r="I237" s="39"/>
-      <c r="J237" s="40"/>
+      <c r="A237" s="38"/>
+      <c r="B237" s="39"/>
+      <c r="C237" s="40"/>
+      <c r="D237" s="40"/>
+      <c r="E237" s="38"/>
+      <c r="F237" s="38"/>
+      <c r="H237" s="38"/>
+      <c r="I237" s="38"/>
+      <c r="J237" s="39"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="39"/>
-      <c r="B238" s="40"/>
-      <c r="C238" s="41"/>
-      <c r="D238" s="41"/>
-      <c r="E238" s="39"/>
-      <c r="F238" s="39"/>
-      <c r="H238" s="39"/>
-      <c r="I238" s="39"/>
-      <c r="J238" s="40"/>
+      <c r="A238" s="38"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="40"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="38"/>
+      <c r="F238" s="38"/>
+      <c r="H238" s="38"/>
+      <c r="I238" s="38"/>
+      <c r="J238" s="39"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="39"/>
-      <c r="B239" s="40"/>
-      <c r="C239" s="41"/>
-      <c r="D239" s="41"/>
-      <c r="E239" s="39"/>
-      <c r="F239" s="39"/>
-      <c r="H239" s="39"/>
-      <c r="I239" s="39"/>
-      <c r="J239" s="40"/>
+      <c r="A239" s="38"/>
+      <c r="B239" s="39"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="38"/>
+      <c r="F239" s="38"/>
+      <c r="H239" s="38"/>
+      <c r="I239" s="38"/>
+      <c r="J239" s="39"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="39"/>
-      <c r="B240" s="40"/>
-      <c r="C240" s="41"/>
-      <c r="D240" s="41"/>
-      <c r="E240" s="39"/>
-      <c r="F240" s="39"/>
-      <c r="H240" s="39"/>
-      <c r="I240" s="39"/>
-      <c r="J240" s="40"/>
+      <c r="A240" s="38"/>
+      <c r="B240" s="39"/>
+      <c r="C240" s="40"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="38"/>
+      <c r="F240" s="38"/>
+      <c r="H240" s="38"/>
+      <c r="I240" s="38"/>
+      <c r="J240" s="39"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="39"/>
-      <c r="B241" s="40"/>
-      <c r="C241" s="41"/>
-      <c r="D241" s="41"/>
-      <c r="E241" s="39"/>
-      <c r="F241" s="39"/>
-      <c r="H241" s="39"/>
-      <c r="I241" s="39"/>
-      <c r="J241" s="40"/>
+      <c r="A241" s="38"/>
+      <c r="B241" s="39"/>
+      <c r="C241" s="40"/>
+      <c r="D241" s="40"/>
+      <c r="E241" s="38"/>
+      <c r="F241" s="38"/>
+      <c r="H241" s="38"/>
+      <c r="I241" s="38"/>
+      <c r="J241" s="39"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="39"/>
-      <c r="B242" s="40"/>
-      <c r="C242" s="41"/>
-      <c r="D242" s="41"/>
-      <c r="E242" s="39"/>
-      <c r="F242" s="39"/>
-      <c r="H242" s="39"/>
-      <c r="I242" s="39"/>
-      <c r="J242" s="40"/>
+      <c r="A242" s="38"/>
+      <c r="B242" s="39"/>
+      <c r="C242" s="40"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="38"/>
+      <c r="F242" s="38"/>
+      <c r="H242" s="38"/>
+      <c r="I242" s="38"/>
+      <c r="J242" s="39"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="39"/>
-      <c r="B243" s="40"/>
-      <c r="C243" s="41"/>
-      <c r="D243" s="41"/>
-      <c r="E243" s="39"/>
-      <c r="F243" s="39"/>
-      <c r="H243" s="39"/>
-      <c r="I243" s="39"/>
-      <c r="J243" s="40"/>
+      <c r="A243" s="38"/>
+      <c r="B243" s="39"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="40"/>
+      <c r="E243" s="38"/>
+      <c r="F243" s="38"/>
+      <c r="H243" s="38"/>
+      <c r="I243" s="38"/>
+      <c r="J243" s="39"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="39"/>
-      <c r="B244" s="40"/>
-      <c r="C244" s="41"/>
-      <c r="D244" s="41"/>
-      <c r="E244" s="39"/>
-      <c r="F244" s="39"/>
-      <c r="H244" s="39"/>
-      <c r="I244" s="39"/>
-      <c r="J244" s="40"/>
+      <c r="A244" s="38"/>
+      <c r="B244" s="39"/>
+      <c r="C244" s="40"/>
+      <c r="D244" s="40"/>
+      <c r="E244" s="38"/>
+      <c r="F244" s="38"/>
+      <c r="H244" s="38"/>
+      <c r="I244" s="38"/>
+      <c r="J244" s="39"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="39"/>
-      <c r="B245" s="40"/>
-      <c r="C245" s="41"/>
-      <c r="D245" s="41"/>
-      <c r="E245" s="39"/>
-      <c r="F245" s="39"/>
-      <c r="H245" s="39"/>
-      <c r="I245" s="39"/>
-      <c r="J245" s="40"/>
+      <c r="A245" s="38"/>
+      <c r="B245" s="39"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="40"/>
+      <c r="E245" s="38"/>
+      <c r="F245" s="38"/>
+      <c r="H245" s="38"/>
+      <c r="I245" s="38"/>
+      <c r="J245" s="39"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="39"/>
-      <c r="B246" s="40"/>
-      <c r="C246" s="39"/>
-      <c r="D246" s="39"/>
-      <c r="E246" s="39"/>
-      <c r="F246" s="39"/>
-      <c r="H246" s="39"/>
-      <c r="I246" s="39"/>
-      <c r="J246" s="40"/>
+      <c r="A246" s="38"/>
+      <c r="B246" s="39"/>
+      <c r="C246" s="38"/>
+      <c r="D246" s="38"/>
+      <c r="E246" s="38"/>
+      <c r="F246" s="38"/>
+      <c r="H246" s="38"/>
+      <c r="I246" s="38"/>
+      <c r="J246" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="160">
